--- a/enemy_data.xlsx
+++ b/enemy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ipota\Git\rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2B0B12-BFA2-49FB-977A-B241E33BFBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEFD13B-B5B2-4AB3-8481-7C73609524A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{95378765-263F-4C10-9208-4B2614DE8B75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,38 @@
   </si>
   <si>
     <t>bookworm</t>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モナ・リザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mona_liza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/ch_after_school_polyturner_left.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/ch_after_school_polyturner_right.png</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,19 +533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3C6FE3-A730-4CED-8700-F38D3DF83F8A}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21.4375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="40.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +568,20 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -544,13 +589,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -558,16 +603,49 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -575,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -583,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -591,12 +669,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
